--- a/data/trans_orig/LAWTONB_2R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_2R2-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>8669</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4269</v>
+        <v>4498</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14440</v>
+        <v>14711</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2449923669418123</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1206445777728466</v>
+        <v>0.1271004176167656</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4080818161040558</v>
+        <v>0.4157163353171175</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -765,19 +765,19 @@
         <v>10242</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5560</v>
+        <v>5023</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16797</v>
+        <v>16670</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2610682226871592</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1417197521105253</v>
+        <v>0.1280357084205402</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4281456529607291</v>
+        <v>0.4249249274436533</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -786,19 +786,19 @@
         <v>18911</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12235</v>
+        <v>12557</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26828</v>
+        <v>27037</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2534445453855738</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1639641893531913</v>
+        <v>0.1682862810320209</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3595455862975904</v>
+        <v>0.3623436409228758</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>26717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20946</v>
+        <v>20675</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31117</v>
+        <v>30888</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7550076330581877</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5919181838959442</v>
+        <v>0.5842836646828824</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8793554222271533</v>
+        <v>0.8728995823832345</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -836,19 +836,19 @@
         <v>28989</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22434</v>
+        <v>22561</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33671</v>
+        <v>34208</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7389317773128408</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5718543470392707</v>
+        <v>0.5750750725563464</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8582802478894748</v>
+        <v>0.8719642915794596</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>58</v>
@@ -857,19 +857,19 @@
         <v>55706</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>47789</v>
+        <v>47580</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62382</v>
+        <v>62060</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7465554546144262</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6404544137024096</v>
+        <v>0.6376563590771243</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8360358106468088</v>
+        <v>0.8317137189679791</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>16280</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10072</v>
+        <v>9855</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24492</v>
+        <v>24391</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2442410936442206</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1511041663715511</v>
+        <v>0.1478464801211166</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3674459279438951</v>
+        <v>0.3659415147076229</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -982,19 +982,19 @@
         <v>22709</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15986</v>
+        <v>15249</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31528</v>
+        <v>32239</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2320217662841786</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1633259108544477</v>
+        <v>0.1557978824974916</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3221200963991338</v>
+        <v>0.3293860315137729</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -1003,19 +1003,19 @@
         <v>38989</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28781</v>
+        <v>28991</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51451</v>
+        <v>50782</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2369720747940234</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1749311657482411</v>
+        <v>0.1762073016295725</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.312714383909813</v>
+        <v>0.3086484157253882</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>50374</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42162</v>
+        <v>42263</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>56582</v>
+        <v>56799</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7557589063557794</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6325540720561049</v>
+        <v>0.634058485292377</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8488958336284489</v>
+        <v>0.8521535198788833</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>74</v>
@@ -1053,19 +1053,19 @@
         <v>75166</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>66347</v>
+        <v>65636</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>81889</v>
+        <v>82626</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7679782337158213</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6778799036008661</v>
+        <v>0.6706139684862271</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8366740891455523</v>
+        <v>0.8442021175025084</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>124</v>
@@ -1074,19 +1074,19 @@
         <v>125540</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>113078</v>
+        <v>113747</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>135748</v>
+        <v>135538</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7630279252059766</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.687285616090187</v>
+        <v>0.691351584274612</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8250688342517589</v>
+        <v>0.8237926983704276</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>10419</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5668</v>
+        <v>5593</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16836</v>
+        <v>16137</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2045440422370672</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1112756121099279</v>
+        <v>0.1097935215291121</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3304974349226617</v>
+        <v>0.3167857311479624</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1199,19 +1199,19 @@
         <v>35745</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27053</v>
+        <v>27475</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44963</v>
+        <v>44858</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4279756566006238</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3239107457834974</v>
+        <v>0.328959386524881</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5383436570315685</v>
+        <v>0.5370870728490424</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -1220,19 +1220,19 @@
         <v>46164</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35292</v>
+        <v>36401</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57398</v>
+        <v>57168</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3433299428532351</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2624720557671887</v>
+        <v>0.2707143842680299</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4268716116848079</v>
+        <v>0.4251637325463404</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>40521</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>34104</v>
+        <v>34803</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45272</v>
+        <v>45347</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7954559577629328</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6695025650773383</v>
+        <v>0.6832142688520377</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.888724387890072</v>
+        <v>0.890206478470888</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>49</v>
@@ -1270,19 +1270,19 @@
         <v>47776</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38558</v>
+        <v>38663</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56468</v>
+        <v>56046</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5720243433993762</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4616563429684316</v>
+        <v>0.4629129271509573</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6760892542165027</v>
+        <v>0.6710406134751188</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>91</v>
@@ -1291,19 +1291,19 @@
         <v>88297</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>77063</v>
+        <v>77293</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>99169</v>
+        <v>98060</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6566700571467649</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5731283883151921</v>
+        <v>0.5748362674536596</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7375279442328112</v>
+        <v>0.7292856157319701</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>15086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9842</v>
+        <v>9414</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22172</v>
+        <v>21922</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2736851377555548</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1785408344472116</v>
+        <v>0.1707919235431735</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4022337548470287</v>
+        <v>0.3977009482435681</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -1416,19 +1416,19 @@
         <v>32783</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24228</v>
+        <v>24184</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41139</v>
+        <v>40741</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4411504648156233</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3260306994308038</v>
+        <v>0.3254357418505751</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5535938336626079</v>
+        <v>0.5482320116472486</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -1437,19 +1437,19 @@
         <v>47870</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37993</v>
+        <v>38274</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58831</v>
+        <v>59583</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3698327705673866</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2935244960080594</v>
+        <v>0.2957017219911415</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4545196494560501</v>
+        <v>0.4603243448997927</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>40036</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>32950</v>
+        <v>33200</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45280</v>
+        <v>45708</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7263148622444453</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5977662451529709</v>
+        <v>0.6022990517564324</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8214591655527879</v>
+        <v>0.8292080764568267</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -1487,19 +1487,19 @@
         <v>41530</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33174</v>
+        <v>33572</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>50085</v>
+        <v>50129</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5588495351843767</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.446406166337392</v>
+        <v>0.4517679883527514</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6739693005691958</v>
+        <v>0.6745642581494251</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>89</v>
@@ -1508,19 +1508,19 @@
         <v>81566</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>70605</v>
+        <v>69853</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>91443</v>
+        <v>91162</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6301672294326134</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5454803505439497</v>
+        <v>0.5396756551002073</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7064755039919406</v>
+        <v>0.7042982780088584</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>8639</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4464</v>
+        <v>5065</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13515</v>
+        <v>13941</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2943847569833006</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1520995928903962</v>
+        <v>0.1726010880744731</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.460517295304412</v>
+        <v>0.475042898755059</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1633,19 +1633,19 @@
         <v>15618</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9282</v>
+        <v>9689</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21663</v>
+        <v>22301</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3786492399797145</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2250491743239298</v>
+        <v>0.2349142579689373</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5252084274508135</v>
+        <v>0.5406748594438077</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1654,19 +1654,19 @@
         <v>24257</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16504</v>
+        <v>16405</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32222</v>
+        <v>32948</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3436185683733859</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2337912599300171</v>
+        <v>0.232394250346873</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4564457339271701</v>
+        <v>0.4667366346710692</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>20708</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15832</v>
+        <v>15406</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24883</v>
+        <v>24282</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7056152430166994</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.539482704695588</v>
+        <v>0.5249571012449411</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8479004071096039</v>
+        <v>0.8273989119255269</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -1704,19 +1704,19 @@
         <v>25628</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19583</v>
+        <v>18945</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31964</v>
+        <v>31557</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6213507600202856</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4747915725491862</v>
+        <v>0.4593251405561932</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7749508256760702</v>
+        <v>0.7650857420310633</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -1725,19 +1725,19 @@
         <v>46336</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38371</v>
+        <v>37645</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54089</v>
+        <v>54188</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6563814316266141</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5435542660728299</v>
+        <v>0.5332633653289307</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7662087400699833</v>
+        <v>0.767605749653127</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>17969</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11513</v>
+        <v>11018</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24020</v>
+        <v>24072</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3807258467902872</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2439404684365244</v>
+        <v>0.2334553989883417</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5089393191279772</v>
+        <v>0.5100500443727906</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -1850,19 +1850,19 @@
         <v>27954</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19216</v>
+        <v>19560</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37267</v>
+        <v>36328</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3975903187206988</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2733111328740813</v>
+        <v>0.2782054112214338</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5300395017063756</v>
+        <v>0.5166946972561504</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -1871,19 +1871,19 @@
         <v>45923</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35203</v>
+        <v>35527</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>57013</v>
+        <v>56353</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3908166459910402</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2995837107087834</v>
+        <v>0.3023380966816121</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4851886261515381</v>
+        <v>0.47957335981848</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>29227</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23176</v>
+        <v>23124</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>35683</v>
+        <v>36178</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6192741532097128</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4910606808720228</v>
+        <v>0.4899499556272095</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7560595315634756</v>
+        <v>0.7665446010116583</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>42</v>
@@ -1921,19 +1921,19 @@
         <v>42355</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33042</v>
+        <v>33981</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51093</v>
+        <v>50749</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6024096812793012</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4699604982936249</v>
+        <v>0.4833053027438497</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7266888671259187</v>
+        <v>0.7217945887785662</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>72</v>
@@ -1942,19 +1942,19 @@
         <v>71583</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>60493</v>
+        <v>61153</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>82303</v>
+        <v>81979</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6091833540089598</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5148113738484618</v>
+        <v>0.52042664018152</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7004162892912166</v>
+        <v>0.6976619033183878</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>19551</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12200</v>
+        <v>13163</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28262</v>
+        <v>27864</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1845684257886205</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.115176587978311</v>
+        <v>0.1242629314103885</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2668072102527582</v>
+        <v>0.2630490598960136</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -2067,19 +2067,19 @@
         <v>39174</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30016</v>
+        <v>29473</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50121</v>
+        <v>50002</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3344788707155946</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2562797171468356</v>
+        <v>0.2516455172864478</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4279427969800151</v>
+        <v>0.4269288125371321</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -2088,19 +2088,19 @@
         <v>58725</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46584</v>
+        <v>45906</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>71828</v>
+        <v>73118</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2632851211122202</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2088506327226562</v>
+        <v>0.2058131743407834</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3220291195396837</v>
+        <v>0.3278124020608699</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>86377</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>77666</v>
+        <v>78064</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>93728</v>
+        <v>92765</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8154315742113795</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7331927897472418</v>
+        <v>0.7369509401039861</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.884823412021689</v>
+        <v>0.8757370685896114</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>80</v>
@@ -2138,19 +2138,19 @@
         <v>77947</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>67000</v>
+        <v>67119</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>87105</v>
+        <v>87648</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6655211292844054</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5720572030199848</v>
+        <v>0.5730711874628678</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7437202828531644</v>
+        <v>0.7483544827135522</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>167</v>
@@ -2159,19 +2159,19 @@
         <v>164324</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>151221</v>
+        <v>149931</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>176465</v>
+        <v>177143</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7367148788877799</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6779708804603168</v>
+        <v>0.6721875979391301</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7911493672773441</v>
+        <v>0.7941868256592166</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>35595</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26466</v>
+        <v>26093</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46114</v>
+        <v>44983</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3181168011537701</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2365260008031283</v>
+        <v>0.2331958693997574</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4121250180286494</v>
+        <v>0.4020147510808655</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -2284,19 +2284,19 @@
         <v>48518</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37266</v>
+        <v>37855</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61315</v>
+        <v>60232</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3166460360274426</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2432082977517487</v>
+        <v>0.2470547893640242</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4001659141700579</v>
+        <v>0.3930968298622479</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>80</v>
@@ -2305,19 +2305,19 @@
         <v>84113</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>69083</v>
+        <v>70863</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>99961</v>
+        <v>101420</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3172667707795791</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2605758769407945</v>
+        <v>0.2672870953186482</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3770444651415411</v>
+        <v>0.3825453253779958</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>76298</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>65779</v>
+        <v>66910</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>85427</v>
+        <v>85800</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6818831988462299</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5878749819713505</v>
+        <v>0.5979852489191345</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7634739991968716</v>
+        <v>0.7668041306002427</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>101</v>
@@ -2355,19 +2355,19 @@
         <v>104707</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>91910</v>
+        <v>92993</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>115959</v>
+        <v>115370</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6833539639725574</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5998340858299421</v>
+        <v>0.6069031701377516</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7567917022482513</v>
+        <v>0.7529452106359757</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>180</v>
@@ -2376,19 +2376,19 @@
         <v>181005</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>165157</v>
+        <v>163698</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>196035</v>
+        <v>194255</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6827332292204209</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6229555348584589</v>
+        <v>0.6174546746220042</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7394241230592056</v>
+        <v>0.7327129046813518</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>132209</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>113715</v>
+        <v>114256</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>152169</v>
+        <v>153418</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.263119522862979</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.226313164836029</v>
+        <v>0.2273905489297035</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3028448168486079</v>
+        <v>0.3053305863903671</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>217</v>
@@ -2501,19 +2501,19 @@
         <v>232744</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>207572</v>
+        <v>209277</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>256014</v>
+        <v>259970</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3438677704819641</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3066771923813669</v>
+        <v>0.3091955160175304</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3782483052958333</v>
+        <v>0.384093332958462</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>356</v>
@@ -2522,19 +2522,19 @@
         <v>364953</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>334884</v>
+        <v>334693</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>399234</v>
+        <v>394645</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3094634848224977</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2839663798323573</v>
+        <v>0.2838048458762248</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3385321764295615</v>
+        <v>0.3346412183309902</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>370257</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>350297</v>
+        <v>349048</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>388751</v>
+        <v>388210</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.736880477137021</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.697155183151392</v>
+        <v>0.694669413609633</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.773686835163971</v>
+        <v>0.7726094510702965</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>444</v>
@@ -2572,19 +2572,19 @@
         <v>444098</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>420828</v>
+        <v>416872</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>469270</v>
+        <v>467565</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6561322295180358</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6217516947041667</v>
+        <v>0.6159066670415385</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6933228076186331</v>
+        <v>0.6908044839824696</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>828</v>
@@ -2593,19 +2593,19 @@
         <v>814355</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>780074</v>
+        <v>784663</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>844424</v>
+        <v>844615</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6905365151775023</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6614678235704385</v>
+        <v>0.6653587816690097</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7160336201676427</v>
+        <v>0.7161951541237752</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>13546</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7820</v>
+        <v>7770</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20352</v>
+        <v>20203</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3059176458937144</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1766058763808479</v>
+        <v>0.1754784165819635</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4596166857518914</v>
+        <v>0.4562476438627491</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -2962,19 +2962,19 @@
         <v>30510</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23481</v>
+        <v>23180</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36733</v>
+        <v>36911</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6240108420843209</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4802528159823551</v>
+        <v>0.4740881500877329</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7512773513249874</v>
+        <v>0.7549165775399584</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -2983,19 +2983,19 @@
         <v>44057</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34906</v>
+        <v>33746</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53961</v>
+        <v>53947</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4728390836712583</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3746256705399493</v>
+        <v>0.3621833671609674</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5791371528226393</v>
+        <v>0.5789825319371635</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>30735</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23929</v>
+        <v>24078</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36461</v>
+        <v>36511</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6940823541062856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5403833142481086</v>
+        <v>0.5437523561372509</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8233941236191521</v>
+        <v>0.8245215834180365</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -3033,19 +3033,19 @@
         <v>18384</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12161</v>
+        <v>11983</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25413</v>
+        <v>25714</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3759891579156791</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2487226486750127</v>
+        <v>0.2450834224600416</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5197471840176451</v>
+        <v>0.525911849912267</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -3054,19 +3054,19 @@
         <v>49118</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39214</v>
+        <v>39228</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58269</v>
+        <v>59429</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5271609163287416</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4208628471773607</v>
+        <v>0.4210174680628365</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6253743294600507</v>
+        <v>0.6378166328390327</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>23518</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14789</v>
+        <v>14569</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32708</v>
+        <v>33789</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2969393427365341</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1867199530853466</v>
+        <v>0.1839445179196077</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4129614838518152</v>
+        <v>0.4266114324612128</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -3179,19 +3179,19 @@
         <v>43483</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33319</v>
+        <v>33739</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53415</v>
+        <v>54714</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4259136612052122</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3263618139195001</v>
+        <v>0.3304740332915534</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5231949857991199</v>
+        <v>0.5359202995818448</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -3200,19 +3200,19 @@
         <v>67001</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>54394</v>
+        <v>54181</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82668</v>
+        <v>82643</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3695686362681098</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3000291871852707</v>
+        <v>0.2988558209001699</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4559852264795264</v>
+        <v>0.4558439408950545</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>55685</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46495</v>
+        <v>45414</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>64414</v>
+        <v>64634</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.703060657263466</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5870385161481847</v>
+        <v>0.5733885675387872</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8132800469146535</v>
+        <v>0.8160554820803922</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>54</v>
@@ -3250,19 +3250,19 @@
         <v>58610</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48678</v>
+        <v>47379</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>68774</v>
+        <v>68354</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5740863387947878</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4768050142008806</v>
+        <v>0.4640797004181547</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6736381860805017</v>
+        <v>0.6695259667084464</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>105</v>
@@ -3271,19 +3271,19 @@
         <v>114295</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>98628</v>
+        <v>98653</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>126902</v>
+        <v>127115</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6304313637318901</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5440147735204736</v>
+        <v>0.5441560591049456</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6999708128147293</v>
+        <v>0.7011441790998302</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>14399</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8055</v>
+        <v>8406</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22021</v>
+        <v>22352</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2583165983074293</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1445115533693801</v>
+        <v>0.1507992776964968</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.395055534481991</v>
+        <v>0.4009931022361045</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -3396,19 +3396,19 @@
         <v>26492</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17335</v>
+        <v>18483</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35195</v>
+        <v>35721</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3312836585962791</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2167801719486073</v>
+        <v>0.2311255044228281</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4401189390304259</v>
+        <v>0.4466942704299967</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -3417,19 +3417,19 @@
         <v>40891</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30481</v>
+        <v>30714</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51044</v>
+        <v>52717</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3013128442035321</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2246068175681651</v>
+        <v>0.2263204776202818</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3761230081699579</v>
+        <v>0.3884511736219464</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>41343</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33721</v>
+        <v>33390</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47687</v>
+        <v>47336</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7416834016925707</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.604944465518009</v>
+        <v>0.5990068977638954</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8554884466306198</v>
+        <v>0.8492007223035031</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -3467,19 +3467,19 @@
         <v>53476</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>44773</v>
+        <v>44247</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>62633</v>
+        <v>61485</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6687163414037208</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5598810609695742</v>
+        <v>0.5533057295700033</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7832198280513929</v>
+        <v>0.768874495577172</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>90</v>
@@ -3488,19 +3488,19 @@
         <v>94819</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>84666</v>
+        <v>82993</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>105229</v>
+        <v>104996</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6986871557964679</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6238769918300422</v>
+        <v>0.6115488263780536</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7753931824318349</v>
+        <v>0.7736795223797182</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>21285</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14113</v>
+        <v>14218</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28386</v>
+        <v>29479</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3324261975787438</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.220417777626999</v>
+        <v>0.2220536808113825</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4433434513245518</v>
+        <v>0.4604019600921518</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -3613,19 +3613,19 @@
         <v>40400</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31883</v>
+        <v>31522</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50995</v>
+        <v>49889</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4721016864825736</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3725738561214204</v>
+        <v>0.3683546594894883</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5959223650560019</v>
+        <v>0.5829925920013133</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -3634,19 +3634,19 @@
         <v>61684</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49214</v>
+        <v>48612</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73324</v>
+        <v>73669</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4123224182386678</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3289671777130473</v>
+        <v>0.3249407597622242</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4901244100744227</v>
+        <v>0.4924318067676423</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>42743</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35642</v>
+        <v>34549</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49915</v>
+        <v>49810</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6675738024212562</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5566565486754487</v>
+        <v>0.5395980399078483</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.779582222373001</v>
+        <v>0.7779463191886176</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -3684,19 +3684,19 @@
         <v>45174</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34579</v>
+        <v>35685</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>53691</v>
+        <v>54052</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5278983135174264</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4040776349439978</v>
+        <v>0.4170074079986868</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6274261438785795</v>
+        <v>0.6316453405105118</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>82</v>
@@ -3705,19 +3705,19 @@
         <v>87918</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>76278</v>
+        <v>75933</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>100388</v>
+        <v>100990</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5876775817613322</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5098755899255772</v>
+        <v>0.5075681932323578</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6710328222869527</v>
+        <v>0.6750592402377759</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>8975</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4210</v>
+        <v>4366</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14556</v>
+        <v>15036</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2839074617018746</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1331862075334008</v>
+        <v>0.1380991024024686</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4604717668922784</v>
+        <v>0.4756506064356932</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -3830,19 +3830,19 @@
         <v>25261</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17628</v>
+        <v>17896</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31604</v>
+        <v>31895</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5066930575369808</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3535812679358173</v>
+        <v>0.3589534398710412</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6339228396493779</v>
+        <v>0.639752392032393</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -3851,19 +3851,19 @@
         <v>34236</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25443</v>
+        <v>25251</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42679</v>
+        <v>43570</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4202440252023883</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3123093862345787</v>
+        <v>0.3099492332027853</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5238818557396627</v>
+        <v>0.5348196067163568</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>22637</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17056</v>
+        <v>16576</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27402</v>
+        <v>27246</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7160925382981254</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5395282331077217</v>
+        <v>0.5243493935643063</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8668137924665992</v>
+        <v>0.8619008975975314</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -3901,19 +3901,19 @@
         <v>24594</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18251</v>
+        <v>17960</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>32227</v>
+        <v>31959</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4933069424630192</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.366077160350622</v>
+        <v>0.360247607967607</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6464187320641824</v>
+        <v>0.6410465601289588</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -3922,19 +3922,19 @@
         <v>47231</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38788</v>
+        <v>37897</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>56024</v>
+        <v>56216</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5797559747976117</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4761181442603372</v>
+        <v>0.4651803932836432</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.687690613765421</v>
+        <v>0.6900507667972148</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>18082</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11781</v>
+        <v>11779</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25231</v>
+        <v>25515</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3493681635887446</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2276344338800368</v>
+        <v>0.2275926358569583</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4874947154213442</v>
+        <v>0.4929828359765301</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -4047,19 +4047,19 @@
         <v>21283</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13838</v>
+        <v>13955</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29225</v>
+        <v>28969</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3031206425821322</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.197094772088794</v>
+        <v>0.1987541688208936</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4162356286724314</v>
+        <v>0.4125863058425169</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -4068,19 +4068,19 @@
         <v>39365</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29225</v>
+        <v>30111</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49874</v>
+        <v>50050</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3227454251028451</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2396126151775676</v>
+        <v>0.2468735082201222</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.408913036442349</v>
+        <v>0.4103551795210332</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>33674</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26525</v>
+        <v>26241</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39975</v>
+        <v>39977</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6506318364112554</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5125052845786557</v>
+        <v>0.5070171640234697</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7723655661199631</v>
+        <v>0.7724073641430417</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -4118,19 +4118,19 @@
         <v>48929</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40987</v>
+        <v>41243</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>56374</v>
+        <v>56257</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6968793574178679</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5837643713275684</v>
+        <v>0.5874136941574832</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8029052279112059</v>
+        <v>0.8012458311791064</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>82</v>
@@ -4139,19 +4139,19 @@
         <v>82603</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>72094</v>
+        <v>71918</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>92743</v>
+        <v>91857</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6772545748971549</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5910869635576511</v>
+        <v>0.5896448204789645</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7603873848224326</v>
+        <v>0.7531264917798777</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>29326</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20659</v>
+        <v>20867</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41236</v>
+        <v>40567</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2612267931878971</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1840259996160921</v>
+        <v>0.1858746857970442</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3673138317397658</v>
+        <v>0.3613540840880494</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -4264,19 +4264,19 @@
         <v>49367</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37780</v>
+        <v>37314</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62367</v>
+        <v>60728</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.347746067510054</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2661255033398664</v>
+        <v>0.2628451921198666</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4393204848999877</v>
+        <v>0.4277796123662529</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>69</v>
@@ -4285,19 +4285,19 @@
         <v>78693</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63911</v>
+        <v>63629</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>95331</v>
+        <v>95399</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3095401157019074</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2513946061874902</v>
+        <v>0.2502861214433438</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3749852734350664</v>
+        <v>0.3752538330246357</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>82937</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>71027</v>
+        <v>71696</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>91604</v>
+        <v>91396</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7387732068121029</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6326861682602345</v>
+        <v>0.6386459159119513</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8159740003839079</v>
+        <v>0.814125314202956</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>86</v>
@@ -4335,19 +4335,19 @@
         <v>92595</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>79595</v>
+        <v>81234</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>104182</v>
+        <v>104648</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6522539324899459</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5606795151000123</v>
+        <v>0.5722203876337474</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7338744966601336</v>
+        <v>0.7371548078801334</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>160</v>
@@ -4356,19 +4356,19 @@
         <v>175533</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>158895</v>
+        <v>158827</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>190315</v>
+        <v>190597</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6904598842980926</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6250147265649328</v>
+        <v>0.624746166975364</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7486053938125098</v>
+        <v>0.7497138785566557</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>20825</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12963</v>
+        <v>13069</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31364</v>
+        <v>31778</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1724639294139624</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.107351475207248</v>
+        <v>0.1082270017389972</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2597360390303175</v>
+        <v>0.2631643212017323</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -4481,19 +4481,19 @@
         <v>49823</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38084</v>
+        <v>38347</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62875</v>
+        <v>63096</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3030281762885184</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2316276229345934</v>
+        <v>0.2332326036262996</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3824094464944134</v>
+        <v>0.3837554631617969</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -4502,19 +4502,19 @@
         <v>70648</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>55232</v>
+        <v>55357</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>85578</v>
+        <v>85964</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2477419201155914</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1936829164002751</v>
+        <v>0.1941212530430295</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3000949380773055</v>
+        <v>0.3014495029131681</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>99927</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>89388</v>
+        <v>88974</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>107789</v>
+        <v>107683</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8275360705860376</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7402639609696825</v>
+        <v>0.7368356787982679</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8926485247927518</v>
+        <v>0.8917729982610029</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>106</v>
@@ -4552,19 +4552,19 @@
         <v>114594</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>101542</v>
+        <v>101321</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>126333</v>
+        <v>126070</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6969718237114816</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6175905535055863</v>
+        <v>0.6162445368382032</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7683723770654066</v>
+        <v>0.7667673963737005</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>195</v>
@@ -4573,19 +4573,19 @@
         <v>214521</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>199591</v>
+        <v>199205</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>229937</v>
+        <v>229812</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7522580798844086</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6999050619226944</v>
+        <v>0.6985504970868319</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8063170835997249</v>
+        <v>0.8058787469569706</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>149957</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>127740</v>
+        <v>127896</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>172662</v>
+        <v>172620</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2679534505116735</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.228255382775474</v>
+        <v>0.2285333646390411</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3085252517787235</v>
+        <v>0.308450760542425</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>263</v>
@@ -4698,19 +4698,19 @@
         <v>286619</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>258240</v>
+        <v>258686</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>314442</v>
+        <v>313752</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3857714804028418</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3475762249137423</v>
+        <v>0.3481763183053287</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4232204200611187</v>
+        <v>0.4222916346772128</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>396</v>
@@ -4719,19 +4719,19 @@
         <v>436575</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>402763</v>
+        <v>400904</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>475669</v>
+        <v>469767</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3351536975799512</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3091962648391992</v>
+        <v>0.3077689444602403</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3651658930548391</v>
+        <v>0.3606347514081517</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>409680</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>386975</v>
+        <v>387017</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>431897</v>
+        <v>431741</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7320465494883265</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6914747482212765</v>
+        <v>0.691549239457575</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.771744617224526</v>
+        <v>0.7714666353609592</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>431</v>
@@ -4769,19 +4769,19 @@
         <v>456356</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>428533</v>
+        <v>429223</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>484735</v>
+        <v>484289</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6142285195971583</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5767795799388813</v>
+        <v>0.5777083653227872</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6524237750862577</v>
+        <v>0.6518236816946713</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>802</v>
@@ -4790,19 +4790,19 @@
         <v>866037</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>826943</v>
+        <v>832845</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>899849</v>
+        <v>901708</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6648463024200488</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6348341069451611</v>
+        <v>0.6393652485918484</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6908037351608008</v>
+        <v>0.6922310555397599</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>8998</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4640</v>
+        <v>4622</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14234</v>
+        <v>14335</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2313408719889621</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1192889950641497</v>
+        <v>0.1188229651392442</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3659430080488927</v>
+        <v>0.368539246127016</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -5159,19 +5159,19 @@
         <v>25737</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18266</v>
+        <v>18743</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33305</v>
+        <v>33661</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5210959202459076</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3698337790092358</v>
+        <v>0.3794853839933623</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6743122636680833</v>
+        <v>0.681515775607837</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -5180,19 +5180,19 @@
         <v>34736</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25787</v>
+        <v>25624</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44976</v>
+        <v>44044</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3934408452113225</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2920860962256899</v>
+        <v>0.29023554586898</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5094304115070445</v>
+        <v>0.4988677615874329</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>29898</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24662</v>
+        <v>24561</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34256</v>
+        <v>34274</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7686591280110379</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.634056991951107</v>
+        <v>0.6314607538729838</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8807110049358502</v>
+        <v>0.8811770348607559</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -5230,19 +5230,19 @@
         <v>23654</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16086</v>
+        <v>15730</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31125</v>
+        <v>30648</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4789040797540924</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3256877363319166</v>
+        <v>0.318484224392163</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6301662209907642</v>
+        <v>0.6205146160066377</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>53</v>
@@ -5251,19 +5251,19 @@
         <v>53551</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43311</v>
+        <v>44243</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62500</v>
+        <v>62663</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6065591547886775</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4905695884929555</v>
+        <v>0.5011322384125672</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7079139037743098</v>
+        <v>0.7097644541310201</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>13599</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7905</v>
+        <v>8175</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20276</v>
+        <v>21220</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1557771385343233</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09055290395710047</v>
+        <v>0.09365307819326314</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2322755729220418</v>
+        <v>0.243083217427938</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -5376,19 +5376,19 @@
         <v>39038</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28168</v>
+        <v>28217</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49999</v>
+        <v>51544</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3387890386176273</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2444583165063286</v>
+        <v>0.2448816415199701</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4339103007021362</v>
+        <v>0.4473225286170846</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -5397,19 +5397,19 @@
         <v>52637</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40987</v>
+        <v>40255</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67545</v>
+        <v>65691</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2599041697577631</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2023803028126374</v>
+        <v>0.1987691169953536</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3335166662630623</v>
+        <v>0.3243631345985712</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>73696</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>67019</v>
+        <v>66075</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79390</v>
+        <v>79120</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8442228614656767</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7677244270779582</v>
+        <v>0.7569167825720621</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9094470960428995</v>
+        <v>0.9063469218067368</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>65</v>
@@ -5447,19 +5447,19 @@
         <v>76190</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>65229</v>
+        <v>63684</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>87060</v>
+        <v>87011</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6612109613823727</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5660896992978638</v>
+        <v>0.5526774713829158</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7555416834936713</v>
+        <v>0.7551183584800299</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>140</v>
@@ -5468,19 +5468,19 @@
         <v>149886</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>134978</v>
+        <v>136832</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>161536</v>
+        <v>162268</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7400958302422369</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6664833337369377</v>
+        <v>0.6756368654014289</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7976196971873627</v>
+        <v>0.8012308830046464</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>14736</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9241</v>
+        <v>9453</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22030</v>
+        <v>21022</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2318975594959364</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1454273481533995</v>
+        <v>0.148754249483154</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3466802091054476</v>
+        <v>0.3308183730833287</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -5593,19 +5593,19 @@
         <v>17328</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10312</v>
+        <v>10628</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26936</v>
+        <v>26554</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2168794458982654</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1290690745580503</v>
+        <v>0.1330193309304801</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3371345311744168</v>
+        <v>0.3323495018435091</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -5614,19 +5614,19 @@
         <v>32064</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23545</v>
+        <v>22624</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42854</v>
+        <v>44618</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.223532551888715</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1641451559502405</v>
+        <v>0.1577204301504833</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2987504954213435</v>
+        <v>0.3110531094157444</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>48810</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>41516</v>
+        <v>42524</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>54305</v>
+        <v>54093</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7681024405040635</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6533197908945524</v>
+        <v>0.6691816269166713</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8545726518466005</v>
+        <v>0.8512457505168463</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -5664,19 +5664,19 @@
         <v>62569</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>52961</v>
+        <v>53343</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>69585</v>
+        <v>69269</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7831205541017346</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6628654688255833</v>
+        <v>0.6676504981564908</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8709309254419497</v>
+        <v>0.8669806690695201</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>109</v>
@@ -5685,19 +5685,19 @@
         <v>111379</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>100589</v>
+        <v>98825</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>119898</v>
+        <v>120819</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.776467448111285</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7012495045786564</v>
+        <v>0.6889468905842557</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8358548440497595</v>
+        <v>0.8422795698495169</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>14928</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9088</v>
+        <v>9805</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22255</v>
+        <v>22472</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2306838345029149</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1404318485846386</v>
+        <v>0.1515239651230836</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3439114670237167</v>
+        <v>0.3472660656496279</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -5810,19 +5810,19 @@
         <v>29381</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19484</v>
+        <v>20045</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39057</v>
+        <v>40348</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3208399137583325</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2127658393782538</v>
+        <v>0.2188969247122282</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4265023375026066</v>
+        <v>0.4406100674910874</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -5831,19 +5831,19 @@
         <v>44308</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34337</v>
+        <v>33311</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56708</v>
+        <v>57266</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2835098070988888</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2197074896119676</v>
+        <v>0.2131400030587408</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3628503503684182</v>
+        <v>0.3664173597749508</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>49784</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42457</v>
+        <v>42240</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55624</v>
+        <v>54907</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.769316165497085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6560885329762833</v>
+        <v>0.6527339343503731</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8595681514153615</v>
+        <v>0.8484760348769164</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -5881,19 +5881,19 @@
         <v>62193</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52517</v>
+        <v>51226</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72090</v>
+        <v>71529</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6791600862416675</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5734976624973934</v>
+        <v>0.5593899325089126</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7872341606217462</v>
+        <v>0.7811030752877719</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>106</v>
@@ -5902,19 +5902,19 @@
         <v>111977</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>99577</v>
+        <v>99019</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>121948</v>
+        <v>122974</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7164901929011112</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6371496496315818</v>
+        <v>0.6335826402250493</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7802925103880326</v>
+        <v>0.7868599969412593</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>4932</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1647</v>
+        <v>2310</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9623</v>
+        <v>9457</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1171950494495072</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03913661192201108</v>
+        <v>0.0549025496707508</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2286941228073631</v>
+        <v>0.2247312657480305</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -6027,19 +6027,19 @@
         <v>24160</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17278</v>
+        <v>16567</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31871</v>
+        <v>31993</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4781044681512872</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3419176026100154</v>
+        <v>0.3278423833867148</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6307108555332896</v>
+        <v>0.6331309667438912</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -6048,19 +6048,19 @@
         <v>29091</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21170</v>
+        <v>19911</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39444</v>
+        <v>38493</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3141188200194742</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.228591503678904</v>
+        <v>0.2149958814236022</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.425907313839707</v>
+        <v>0.4156424424419174</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>37148</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32457</v>
+        <v>32623</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40433</v>
+        <v>39770</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8828049505504928</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.771305877192637</v>
+        <v>0.7752687342519673</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9608633880779889</v>
+        <v>0.9450974503292492</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -6098,19 +6098,19 @@
         <v>26372</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18661</v>
+        <v>18539</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33254</v>
+        <v>33965</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5218955318487128</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3692891444667104</v>
+        <v>0.3668690332561088</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6580823973899845</v>
+        <v>0.6721576166132861</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>66</v>
@@ -6119,19 +6119,19 @@
         <v>63521</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>53168</v>
+        <v>54119</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>71442</v>
+        <v>72701</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6858811799805259</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5740926861602931</v>
+        <v>0.5843575575580825</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.771408496321096</v>
+        <v>0.7850041185763978</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>14935</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9187</v>
+        <v>9843</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21142</v>
+        <v>20596</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3082783125736946</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1896295533283002</v>
+        <v>0.2031748895335762</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4363986259801462</v>
+        <v>0.4251359562903594</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -6244,19 +6244,19 @@
         <v>23389</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15095</v>
+        <v>15121</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32014</v>
+        <v>32485</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3470844764600013</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2240075876034419</v>
+        <v>0.2243925971430822</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4750698760058407</v>
+        <v>0.482053736498184</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -6265,19 +6265,19 @@
         <v>38324</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>28329</v>
+        <v>28473</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48370</v>
+        <v>49518</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3308542932066447</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2445672710466514</v>
+        <v>0.2458045176586938</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4175839505762197</v>
+        <v>0.4274948130104618</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>33511</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27304</v>
+        <v>27850</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39259</v>
+        <v>38603</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6917216874263055</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5636013740198544</v>
+        <v>0.5748640437096409</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8103704466717</v>
+        <v>0.7968251104664238</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>41</v>
@@ -6315,19 +6315,19 @@
         <v>43999</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35374</v>
+        <v>34903</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52293</v>
+        <v>52267</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6529155235399987</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5249301239941593</v>
+        <v>0.5179462635018157</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7759924123965579</v>
+        <v>0.7756074028569174</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>78</v>
@@ -6336,19 +6336,19 @@
         <v>77510</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>67464</v>
+        <v>66316</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>87505</v>
+        <v>87361</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6691457067933553</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5824160494237802</v>
+        <v>0.5725051869895382</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7554327289533486</v>
+        <v>0.7541954823413062</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>27480</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19606</v>
+        <v>19868</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37515</v>
+        <v>37134</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2449549233205814</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1747652850557181</v>
+        <v>0.1770959476917287</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3344069806125841</v>
+        <v>0.3310056836743915</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -6461,19 +6461,19 @@
         <v>61722</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>50256</v>
+        <v>48619</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>75334</v>
+        <v>73794</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4180969624093911</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3404310520426784</v>
+        <v>0.3293399999128046</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5103098853005911</v>
+        <v>0.499874398380206</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>80</v>
@@ -6482,19 +6482,19 @@
         <v>89202</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>73036</v>
+        <v>72795</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>106433</v>
+        <v>105443</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.343334603534889</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2811137520988625</v>
+        <v>0.2801838995867769</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4096582505189242</v>
+        <v>0.4058475164405962</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>84705</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>74670</v>
+        <v>75051</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>92579</v>
+        <v>92317</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7550450766794186</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.665593019387416</v>
+        <v>0.6689943163256091</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8252347149442822</v>
+        <v>0.8229040523082713</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>73</v>
@@ -6532,19 +6532,19 @@
         <v>85903</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>72291</v>
+        <v>73831</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>97369</v>
+        <v>99006</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5819030375906089</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4896901146994092</v>
+        <v>0.5001256016197939</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6595689479573217</v>
+        <v>0.6706600000871961</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>154</v>
@@ -6553,19 +6553,19 @@
         <v>170608</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>153377</v>
+        <v>154367</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>186774</v>
+        <v>187015</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.656665396465111</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5903417494810758</v>
+        <v>0.5941524835594042</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7188862479011375</v>
+        <v>0.7198161004132231</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>24736</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17030</v>
+        <v>17225</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34209</v>
+        <v>34799</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1843630339226134</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1269268611610267</v>
+        <v>0.1283834743957546</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2549724020834798</v>
+        <v>0.259370931918867</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -6678,19 +6678,19 @@
         <v>56751</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44220</v>
+        <v>44051</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>72345</v>
+        <v>71045</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3219055244336056</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.250828992368874</v>
+        <v>0.2498677444914149</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.410358078900408</v>
+        <v>0.4029854811373077</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>69</v>
@@ -6699,19 +6699,19 @@
         <v>81487</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>65802</v>
+        <v>63951</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>100916</v>
+        <v>98931</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2624661696657092</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2119464484275586</v>
+        <v>0.2059853024691562</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3250477332695751</v>
+        <v>0.3186537120935312</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>109432</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>99959</v>
+        <v>99369</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>117138</v>
+        <v>116943</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8156369660773867</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7450275979165198</v>
+        <v>0.740629068081133</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8730731388389731</v>
+        <v>0.8716165256042452</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>99</v>
@@ -6749,19 +6749,19 @@
         <v>119546</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>103952</v>
+        <v>105252</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>132077</v>
+        <v>132246</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6780944755663944</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5896419210995919</v>
+        <v>0.5970145188626922</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7491710076311259</v>
+        <v>0.7501322555085851</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>214</v>
@@ -6770,19 +6770,19 @@
         <v>228978</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>209549</v>
+        <v>211534</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>244663</v>
+        <v>246514</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7375338303342909</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.674952266730425</v>
+        <v>0.6813462879064689</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7880535515724415</v>
+        <v>0.7940146975308437</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>124343</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>105692</v>
+        <v>105867</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>142358</v>
+        <v>143017</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2102780061344388</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1787360360020671</v>
+        <v>0.1790318553672144</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.240743027232943</v>
+        <v>0.2418572840000608</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>223</v>
@@ -6895,19 +6895,19 @@
         <v>277505</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>249618</v>
+        <v>248112</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>307064</v>
+        <v>305455</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3567220130985952</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3208745113644059</v>
+        <v>0.3189387289006796</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.394719043445698</v>
+        <v>0.3926505389474234</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>362</v>
@@ -6916,19 +6916,19 @@
         <v>401848</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>367141</v>
+        <v>364334</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>436564</v>
+        <v>433164</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2934787248540552</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2681313873976914</v>
+        <v>0.2660814686154976</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3188325168477419</v>
+        <v>0.3163489396928801</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>466985</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>448970</v>
+        <v>448311</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>485636</v>
+        <v>485461</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7897219938655612</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7592569727670571</v>
+        <v>0.7581427159999391</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8212639639979329</v>
+        <v>0.8209681446327856</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>432</v>
@@ -6966,19 +6966,19 @@
         <v>500426</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>470867</v>
+        <v>472476</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>528313</v>
+        <v>529819</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6432779869014048</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.605280956554302</v>
+        <v>0.6073494610525761</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6791254886355941</v>
+        <v>0.6810612710993202</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>920</v>
@@ -6987,19 +6987,19 @@
         <v>967411</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>932695</v>
+        <v>936095</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1002118</v>
+        <v>1004925</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7065212751459448</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6811674831522579</v>
+        <v>0.6836510603071196</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7318686126023086</v>
+        <v>0.7339185313845019</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>29902</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23422</v>
+        <v>23564</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36154</v>
+        <v>36641</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4905603133045167</v>
+        <v>0.4905603133045168</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3842546158456008</v>
+        <v>0.3865812510916114</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5931315340264437</v>
+        <v>0.6011201962313256</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -7356,19 +7356,19 @@
         <v>34025</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29016</v>
+        <v>28059</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39914</v>
+        <v>40199</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5212518279540461</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4445057194558175</v>
+        <v>0.4298477825855533</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6114674751725381</v>
+        <v>0.6158384460751606</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>108</v>
@@ -7377,19 +7377,19 @@
         <v>63927</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55334</v>
+        <v>55220</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>72848</v>
+        <v>71958</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5064314292909997</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4383554082286144</v>
+        <v>0.4374551039951998</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5770999786333798</v>
+        <v>0.5700505957822454</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>31053</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24801</v>
+        <v>24314</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37533</v>
+        <v>37391</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5094396866954831</v>
+        <v>0.5094396866954832</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4068684659735561</v>
+        <v>0.3988798037686744</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6157453841543992</v>
+        <v>0.6134187489083888</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -7427,19 +7427,19 @@
         <v>31251</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25362</v>
+        <v>25077</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36260</v>
+        <v>37217</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4787481720459537</v>
+        <v>0.4787481720459538</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3885325248274616</v>
+        <v>0.3841615539248392</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5554942805441827</v>
+        <v>0.5701522174144465</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>107</v>
@@ -7448,19 +7448,19 @@
         <v>62304</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53383</v>
+        <v>54273</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>70897</v>
+        <v>71011</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4935685707090001</v>
+        <v>0.4935685707090002</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4229000213666202</v>
+        <v>0.4299494042177548</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.561644591771385</v>
+        <v>0.5625448960048003</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>17392</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11025</v>
+        <v>11079</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24899</v>
+        <v>24920</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1988910865844233</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1260793999469209</v>
+        <v>0.1267005900708577</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2847472922131957</v>
+        <v>0.2849817733488393</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -7573,19 +7573,19 @@
         <v>60938</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51739</v>
+        <v>52432</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69626</v>
+        <v>70033</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4521985159294661</v>
+        <v>0.452198515929466</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3839407604507551</v>
+        <v>0.3890777849528813</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5166680889168312</v>
+        <v>0.5196903568486863</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -7594,19 +7594,19 @@
         <v>78330</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66084</v>
+        <v>67395</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>89897</v>
+        <v>91418</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3525140365637731</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2974026433740936</v>
+        <v>0.3033051837326862</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4045712129428632</v>
+        <v>0.4114172979712698</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>70052</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>62545</v>
+        <v>62524</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>76419</v>
+        <v>76365</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8011089134155768</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7152527077868046</v>
+        <v>0.7150182266511609</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8739206000530793</v>
+        <v>0.8732994099291422</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>124</v>
@@ -7644,19 +7644,19 @@
         <v>73821</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>65133</v>
+        <v>64726</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>83020</v>
+        <v>82327</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.547801484070534</v>
+        <v>0.5478014840705339</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4833319110831688</v>
+        <v>0.4803096431513137</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6160592395492449</v>
+        <v>0.6109222150471191</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>199</v>
@@ -7665,19 +7665,19 @@
         <v>143873</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>132306</v>
+        <v>130785</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>156119</v>
+        <v>154808</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.647485963436227</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5954287870571368</v>
+        <v>0.58858270202873</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7025973566259064</v>
+        <v>0.6966948162673138</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>26391</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20969</v>
+        <v>19985</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33003</v>
+        <v>32299</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3650990421343158</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.29009433638483</v>
+        <v>0.2764709263979886</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4565648980035744</v>
+        <v>0.4468263579372677</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -7790,19 +7790,19 @@
         <v>44949</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38436</v>
+        <v>38558</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51729</v>
+        <v>51338</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5270663438283905</v>
+        <v>0.5270663438283903</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4506986522434696</v>
+        <v>0.4521306621648633</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6065730578740045</v>
+        <v>0.6019904526669296</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -7811,19 +7811,19 @@
         <v>71340</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62305</v>
+        <v>62253</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80634</v>
+        <v>80596</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4527624106710404</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3954204124779714</v>
+        <v>0.3950909312851875</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5117480140177642</v>
+        <v>0.5115079003685028</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>45894</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>39282</v>
+        <v>39986</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51316</v>
+        <v>52300</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6349009578656843</v>
+        <v>0.6349009578656842</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5434351019964259</v>
+        <v>0.5531736420627322</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.70990566361517</v>
+        <v>0.7235290736020112</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>79</v>
@@ -7861,19 +7861,19 @@
         <v>40332</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>33552</v>
+        <v>33943</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46845</v>
+        <v>46723</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4729336561716097</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3934269421259955</v>
+        <v>0.3980095473330704</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5493013477565304</v>
+        <v>0.5478693378351372</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>156</v>
@@ -7882,19 +7882,19 @@
         <v>86226</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>76932</v>
+        <v>76970</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>95261</v>
+        <v>95313</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5472375893289597</v>
+        <v>0.5472375893289595</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4882519859822357</v>
+        <v>0.4884920996314972</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6045795875220286</v>
+        <v>0.6049090687148126</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>18346</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12545</v>
+        <v>12630</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25015</v>
+        <v>25085</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2254045931279098</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1541268277570174</v>
+        <v>0.1551767473431306</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3073339315265433</v>
+        <v>0.3081974221554719</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -8007,19 +8007,19 @@
         <v>38519</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32365</v>
+        <v>32425</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45302</v>
+        <v>44515</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3485767371209266</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2928854089922336</v>
+        <v>0.2934273587438881</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.409953937100878</v>
+        <v>0.4028317731098619</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -8028,19 +8028,19 @@
         <v>56865</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46744</v>
+        <v>48095</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65559</v>
+        <v>66204</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2963333103505968</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2435920111887513</v>
+        <v>0.2506282576310292</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3416377058830454</v>
+        <v>0.3449978220511655</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>63047</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>56378</v>
+        <v>56308</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>68848</v>
+        <v>68763</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7745954068720903</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6926660684734564</v>
+        <v>0.691802577844528</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8458731722429825</v>
+        <v>0.8448232526568692</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>167</v>
@@ -8078,19 +8078,19 @@
         <v>71985</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65202</v>
+        <v>65989</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78139</v>
+        <v>78079</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6514232628790735</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.590046062899122</v>
+        <v>0.5971682268901379</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7071145910077665</v>
+        <v>0.7065726412561119</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>254</v>
@@ -8099,19 +8099,19 @@
         <v>135031</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>126337</v>
+        <v>125692</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>145152</v>
+        <v>143801</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7036666896494032</v>
+        <v>0.7036666896494033</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6583622941169546</v>
+        <v>0.6550021779488348</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7564079888112488</v>
+        <v>0.7493717423689711</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>9224</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5999</v>
+        <v>5799</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13253</v>
+        <v>13804</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2526850800800965</v>
+        <v>0.2526850800800964</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1643551222390289</v>
+        <v>0.1588667785521547</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3630560478942645</v>
+        <v>0.3781684382912309</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -8224,19 +8224,19 @@
         <v>17977</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13656</v>
+        <v>13793</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23250</v>
+        <v>22939</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2939160392526735</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2232671728987629</v>
+        <v>0.2255035125337818</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3801200995547227</v>
+        <v>0.3750391654447285</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -8245,19 +8245,19 @@
         <v>27201</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21607</v>
+        <v>21400</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32637</v>
+        <v>33072</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2785060097918697</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2212274442571262</v>
+        <v>0.2191158133060769</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3341664197721467</v>
+        <v>0.3386200837610041</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>27279</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23250</v>
+        <v>22699</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30504</v>
+        <v>30704</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7473149199199034</v>
+        <v>0.7473149199199032</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6369439521057355</v>
+        <v>0.6218315617087692</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8356448777609712</v>
+        <v>0.8411332214478457</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>118</v>
@@ -8295,19 +8295,19 @@
         <v>43187</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>37914</v>
+        <v>38225</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47508</v>
+        <v>47371</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7060839607473265</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6198799004452774</v>
+        <v>0.6249608345552715</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7767328271012373</v>
+        <v>0.7744964874662184</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>171</v>
@@ -8316,19 +8316,19 @@
         <v>70466</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>65030</v>
+        <v>64595</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>76060</v>
+        <v>76267</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7214939902081303</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6658335802278535</v>
+        <v>0.6613799162389961</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7787725557428739</v>
+        <v>0.7808841866939233</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>24068</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19485</v>
+        <v>19282</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29450</v>
+        <v>29272</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3996335434456122</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3235367869109328</v>
+        <v>0.3201759910645238</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4890068271077126</v>
+        <v>0.4860533505537873</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>95</v>
@@ -8441,19 +8441,19 @@
         <v>33793</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29238</v>
+        <v>28625</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38964</v>
+        <v>38691</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.508361516627887</v>
+        <v>0.5083615166278869</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4398420994172793</v>
+        <v>0.4306239562243473</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5861546856958523</v>
+        <v>0.5820507271602799</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>151</v>
@@ -8462,19 +8462,19 @@
         <v>57860</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51135</v>
+        <v>50591</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>64836</v>
+        <v>64384</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4566795923354909</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4035954836244525</v>
+        <v>0.3993033871924367</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5117340280851295</v>
+        <v>0.5081659233188321</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>36156</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30774</v>
+        <v>30952</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40739</v>
+        <v>40942</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6003664565543879</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5109931728922873</v>
+        <v>0.5139466494462129</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.676463213089067</v>
+        <v>0.6798240089354765</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -8512,19 +8512,19 @@
         <v>32681</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27510</v>
+        <v>27783</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37236</v>
+        <v>37849</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4916384833721131</v>
+        <v>0.491638483372113</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.413845314304148</v>
+        <v>0.4179492728397199</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5601579005827209</v>
+        <v>0.5693760437756534</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>159</v>
@@ -8533,19 +8533,19 @@
         <v>68838</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>61862</v>
+        <v>62314</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>75563</v>
+        <v>76107</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.543320407664509</v>
+        <v>0.5433204076645091</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4882659719148709</v>
+        <v>0.4918340766811678</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.596404516375548</v>
+        <v>0.6006966128075633</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>27845</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19743</v>
+        <v>19938</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38660</v>
+        <v>37018</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1849754815341175</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1311574979577732</v>
+        <v>0.1324519640692654</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2568235513115434</v>
+        <v>0.2459165465224218</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>92</v>
@@ -8658,19 +8658,19 @@
         <v>64076</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53546</v>
+        <v>54218</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>74428</v>
+        <v>75011</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3933540162831719</v>
+        <v>0.3933540162831718</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3287093341884541</v>
+        <v>0.3328388742184787</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4569024238467662</v>
+        <v>0.4604801076208767</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>121</v>
@@ -8679,19 +8679,19 @@
         <v>91921</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>78107</v>
+        <v>78837</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>106161</v>
+        <v>107284</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2932755507968767</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2492010215242261</v>
+        <v>0.2515318407193327</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3387099337139901</v>
+        <v>0.3422921533622553</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>122686</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>111871</v>
+        <v>113513</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>130788</v>
+        <v>130593</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8150245184658825</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7431764486884561</v>
+        <v>0.7540834534775783</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8688425020422267</v>
+        <v>0.8675480359307347</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>147</v>
@@ -8729,19 +8729,19 @@
         <v>98821</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>88469</v>
+        <v>87886</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>109351</v>
+        <v>108679</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6066459837168282</v>
+        <v>0.6066459837168283</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5430975761532336</v>
+        <v>0.5395198923791232</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6712906658115448</v>
+        <v>0.6671611257815211</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>285</v>
@@ -8750,19 +8750,19 @@
         <v>221507</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>207267</v>
+        <v>206144</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>235321</v>
+        <v>234591</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7067244492031233</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6612900662860101</v>
+        <v>0.6577078466377447</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7507989784757739</v>
+        <v>0.7484681592806673</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>22290</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15182</v>
+        <v>16135</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29444</v>
+        <v>31010</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1385570324377546</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09437171135036523</v>
+        <v>0.1002968759816432</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1830264185021653</v>
+        <v>0.1927607835737057</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>120</v>
@@ -8875,19 +8875,19 @@
         <v>76484</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65570</v>
+        <v>65907</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>87233</v>
+        <v>87786</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3610097362891383</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3094922620269278</v>
+        <v>0.3110865499915728</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4117457610728584</v>
+        <v>0.4143535478053521</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>152</v>
@@ -8896,19 +8896,19 @@
         <v>98774</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>84724</v>
+        <v>84909</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>112703</v>
+        <v>112851</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2649988529641733</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2273028067963516</v>
+        <v>0.2277998155270863</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3023670817259112</v>
+        <v>0.3027656942188574</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>138583</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>131429</v>
+        <v>129863</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>145691</v>
+        <v>144738</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8614429675622453</v>
+        <v>0.8614429675622454</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8169735814978347</v>
+        <v>0.807239216426294</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9056282886496346</v>
+        <v>0.8997031240183569</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>222</v>
@@ -8946,19 +8946,19 @@
         <v>135378</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>124629</v>
+        <v>124076</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>146292</v>
+        <v>145955</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6389902637108618</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5882542389271416</v>
+        <v>0.5856464521946479</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6905077379730722</v>
+        <v>0.6889134500084272</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>421</v>
@@ -8967,19 +8967,19 @@
         <v>273961</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>260032</v>
+        <v>259884</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>288011</v>
+        <v>287826</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7350011470358268</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6976329182740887</v>
+        <v>0.6972343057811425</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7726971932036484</v>
+        <v>0.7722001844729136</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>175457</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>156453</v>
+        <v>156973</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>194989</v>
+        <v>194508</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2470505687383007</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2202914860407027</v>
+        <v>0.2210239877269374</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2745527401893122</v>
+        <v>0.2738753096692194</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>696</v>
@@ -9092,19 +9092,19 @@
         <v>370762</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>349079</v>
+        <v>349660</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>392489</v>
+        <v>392807</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4127747987022242</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3886350501782195</v>
+        <v>0.3892821838180633</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4369645196111522</v>
+        <v>0.4373185801282437</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>964</v>
@@ -9113,19 +9113,19 @@
         <v>546218</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>515865</v>
+        <v>515536</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>576254</v>
+        <v>577113</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.339598561221061</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3207268002662697</v>
+        <v>0.3205222179205318</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3582726036959119</v>
+        <v>0.3588064208908613</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>534750</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>515218</v>
+        <v>515699</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>553754</v>
+        <v>553234</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7529494312616993</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7254472598106876</v>
+        <v>0.7261246903307806</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7797085139592973</v>
+        <v>0.7789760122730627</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1002</v>
@@ -9163,19 +9163,19 @@
         <v>527456</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>505729</v>
+        <v>505411</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>549139</v>
+        <v>548558</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.5872252012977758</v>
+        <v>0.5872252012977759</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5630354803888477</v>
+        <v>0.5626814198717563</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6113649498217802</v>
+        <v>0.6107178161819365</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1752</v>
@@ -9184,19 +9184,19 @@
         <v>1062206</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1032170</v>
+        <v>1031311</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1092559</v>
+        <v>1092888</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6604014387789392</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6417273963040884</v>
+        <v>0.6411935791091388</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6792731997337307</v>
+        <v>0.6794777820794682</v>
       </c>
     </row>
     <row r="30">
